--- a/RE_FRAMEWORK_PROJECTS/RE_FRAMEWORK_WITH_EXCEL/Data/Input/Input.xlsx
+++ b/RE_FRAMEWORK_PROJECTS/RE_FRAMEWORK_WITH_EXCEL/Data/Input/Input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NUM1</t>
   </si>
@@ -29,36 +29,6 @@
   </si>
   <si>
     <t>STATUS</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>NO DATA</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>-49</t>
   </si>
 </sst>
 </file>
@@ -404,7 +374,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9 F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,15 +407,7 @@
       <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -454,15 +416,7 @@
       <c r="B3" s="1">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -471,20 +425,10 @@
       <c r="B4" s="1">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -493,15 +437,7 @@
       <c r="B6" s="1">
         <v>63</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
